--- a/Data/Data_ferm.xlsx
+++ b/Data/Data_ferm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LADES\Documents\Cesar\Biocontrol_modeling_project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamez\OneDrive - Universidad EIA\Biocontrol_modeling_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8B52F8-E591-4B3F-BD2A-1E64EE77C4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D744F-D95C-46A0-A2F5-2A54A126701F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{2A670E28-4D85-4653-96F3-C9FF6BA9A053}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7270" xr2:uid="{2A670E28-4D85-4653-96F3-C9FF6BA9A053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>tiempo</t>
+    <t>time</t>
   </si>
   <si>
-    <t>biomasa</t>
+    <t>biomass</t>
   </si>
   <si>
-    <t>sustrato</t>
+    <t>substrate</t>
   </si>
   <si>
-    <t>producto</t>
+    <t>product</t>
   </si>
   <si>
-    <t>oxigeno</t>
+    <t>oxygen</t>
   </si>
 </sst>
 </file>
@@ -113,9 +113,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +153,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -259,7 +259,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,15 +412,15 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -454,7 +454,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,7 +471,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -488,7 +488,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -505,7 +505,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
